--- a/9_15 - Group 4 – Gantt Project 1 Planner.xlsx
+++ b/9_15 - Group 4 – Gantt Project 1 Planner.xlsx
@@ -1083,7 +1083,7 @@
         <v>9.0</v>
       </c>
       <c r="G6" s="29">
-        <v>0.95</v>
+        <v>1.0</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -1163,7 +1163,7 @@
         <v>9.0</v>
       </c>
       <c r="G7" s="29">
-        <v>0.95</v>
+        <v>1.0</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -1243,7 +1243,7 @@
         <v>9.0</v>
       </c>
       <c r="G8" s="29">
-        <v>0.95</v>
+        <v>1.0</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
